--- a/Data/EC/NIT-9002018709.xlsx
+++ b/Data/EC/NIT-9002018709.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B943342-F2CC-4DE9-93D0-2DD653F469DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D673B69-385B-45AF-88B8-22EC31CA4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1B5570E-81DA-4DDA-8B3F-F6DC97EFBC25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB901D4C-A796-439B-8D1D-CD824E5EFA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,109 +71,109 @@
     <t>JORGE AREVALO TORRES</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591C0FA3-935C-471D-8429-DBE1B01A6EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDDCB3C-5FCB-C02F-5352-CB3FD9BD4B81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3082C719-B0E9-4AC6-A22E-E2B713A8F381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C3C0CC-7904-42F3-86C4-4492DAE17211}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1116,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56000</v>
+        <v>29867</v>
       </c>
       <c r="G16" s="18">
         <v>1400000</v>
@@ -1898,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="24">
-        <v>29867</v>
+        <v>56000</v>
       </c>
       <c r="G50" s="24">
         <v>1400000</v>

--- a/Data/EC/NIT-9002018709.xlsx
+++ b/Data/EC/NIT-9002018709.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D673B69-385B-45AF-88B8-22EC31CA4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C542A483-F5F7-41BC-AA75-F14314DC1AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB901D4C-A796-439B-8D1D-CD824E5EFA0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B53071A-B96D-4A0B-ADBB-AC3BA3706B31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,109 +71,109 @@
     <t>JORGE AREVALO TORRES</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -272,7 +272,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -285,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,23 +487,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +531,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDDCB3C-5FCB-C02F-5352-CB3FD9BD4B81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA85F542-736C-8C58-6D7D-0EC9AAF0DE25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C3C0CC-7904-42F3-86C4-4492DAE17211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C1A9DF-F544-4419-B60E-031ED42F2AF5}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1116,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29867</v>
+        <v>56000</v>
       </c>
       <c r="G16" s="18">
         <v>1400000</v>
@@ -1898,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="24">
-        <v>56000</v>
+        <v>29867</v>
       </c>
       <c r="G50" s="24">
         <v>1400000</v>
